--- a/teaching/traditional_assets/database/data/malta/malta_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/malta/malta_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0</v>
+        <v>0.0007089204182826845</v>
       </c>
       <c r="H2">
-        <v>-0</v>
+        <v>0.0007089204182826845</v>
       </c>
       <c r="I2">
-        <v>1.103301795713458</v>
+        <v>1.020865040011783</v>
       </c>
       <c r="J2">
-        <v>1.103301795713458</v>
+        <v>1.020865040011783</v>
       </c>
       <c r="K2">
-        <v>-634.6</v>
+        <v>-1065.66</v>
       </c>
       <c r="L2">
-        <v>1.225333075883375</v>
+        <v>1.046354754774412</v>
       </c>
       <c r="M2">
-        <v>62.2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1327924850555081</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.09801449732114718</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,73 +627,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>62.2</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>52.3</v>
+        <v>12.333</v>
       </c>
       <c r="V2">
-        <v>0.1116567036720752</v>
+        <v>0.03539896670493685</v>
       </c>
       <c r="W2">
-        <v>-0.3194080934165492</v>
+        <v>-0.5153716287001916</v>
       </c>
       <c r="X2">
-        <v>0.09113871051158572</v>
+        <v>0.04962139047014914</v>
       </c>
       <c r="Y2">
-        <v>-0.410546803928135</v>
+        <v>-0.5649930191703407</v>
       </c>
       <c r="Z2">
-        <v>-0.1962783294171151</v>
+        <v>-0.5124000871399628</v>
       </c>
       <c r="AA2">
-        <v>-0.2165542333055408</v>
+        <v>-0.3291813778731087</v>
       </c>
       <c r="AB2">
-        <v>0.04980683521129553</v>
+        <v>0.04017937176197776</v>
       </c>
       <c r="AC2">
-        <v>-0.2663610685168364</v>
+        <v>-0.3693607496350865</v>
       </c>
       <c r="AD2">
-        <v>842.9</v>
+        <v>334.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>842.9</v>
+        <v>334.7</v>
       </c>
       <c r="AG2">
-        <v>790.6</v>
+        <v>322.367</v>
       </c>
       <c r="AH2">
-        <v>0.6427972241287272</v>
+        <v>0.4899721856243596</v>
       </c>
       <c r="AI2">
-        <v>0.4158156973015638</v>
+        <v>0.3500313741895001</v>
       </c>
       <c r="AJ2">
-        <v>0.6279586973788721</v>
+        <v>0.4805946028948949</v>
       </c>
       <c r="AK2">
-        <v>0.4003443386672068</v>
+        <v>0.3415385854151061</v>
       </c>
       <c r="AL2">
-        <v>62.2</v>
+        <v>76.3</v>
       </c>
       <c r="AM2">
-        <v>62.2</v>
+        <v>76.3</v>
+      </c>
+      <c r="AN2">
+        <v>-198.0473372781065</v>
       </c>
       <c r="AO2">
-        <v>-9.186495176848874</v>
+        <v>-13.62647444298821</v>
+      </c>
+      <c r="AP2">
+        <v>-190.7497041420118</v>
       </c>
       <c r="AQ2">
-        <v>-9.186495176848874</v>
+        <v>-13.62647444298821</v>
       </c>
     </row>
     <row r="3">
@@ -704,118 +707,234 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Santumas Shareholdings plc (MTSE:STS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>0.4658064516129032</v>
+      </c>
+      <c r="H3">
+        <v>0.4658064516129032</v>
+      </c>
+      <c r="I3">
+        <v>1.096774193548387</v>
+      </c>
+      <c r="J3">
+        <v>1.096774193548387</v>
+      </c>
+      <c r="K3">
+        <v>-1.76</v>
+      </c>
+      <c r="L3">
+        <v>1.135483870967742</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.633</v>
+      </c>
+      <c r="V3">
+        <v>0.05104838709677419</v>
+      </c>
+      <c r="W3">
+        <v>-0.1323308270676692</v>
+      </c>
+      <c r="X3">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="Y3">
+        <v>-0.1720909721918495</v>
+      </c>
+      <c r="Z3">
+        <v>-0.1210275630514562</v>
+      </c>
+      <c r="AA3">
+        <v>-0.1327399078628875</v>
+      </c>
+      <c r="AB3">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="AC3">
+        <v>-0.1725000529870678</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-0.633</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.05379451007053625</v>
+      </c>
+      <c r="AK3">
+        <v>-0.0552018836661725</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
+      </c>
+      <c r="AP3">
+        <v>0.3745562130177515</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Brait SE (JSE:BAT)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G3">
-        <v>-0</v>
-      </c>
-      <c r="H3">
-        <v>-0</v>
-      </c>
-      <c r="I3">
-        <v>1.103301795713458</v>
-      </c>
-      <c r="J3">
-        <v>1.103301795713458</v>
-      </c>
-      <c r="K3">
-        <v>-634.6</v>
-      </c>
-      <c r="L3">
-        <v>1.225333075883375</v>
-      </c>
-      <c r="M3">
-        <v>62.2</v>
-      </c>
-      <c r="N3">
-        <v>0.1327924850555081</v>
-      </c>
-      <c r="O3">
-        <v>-0.09801449732114718</v>
-      </c>
-      <c r="P3">
-        <v>-0</v>
-      </c>
-      <c r="Q3">
-        <v>-0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>62.2</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>52.3</v>
-      </c>
-      <c r="V3">
-        <v>0.1116567036720752</v>
-      </c>
-      <c r="W3">
-        <v>-0.3194080934165492</v>
-      </c>
-      <c r="X3">
-        <v>0.09113871051158572</v>
-      </c>
-      <c r="Y3">
-        <v>-0.410546803928135</v>
-      </c>
-      <c r="Z3">
-        <v>-0.1962783294171151</v>
-      </c>
-      <c r="AA3">
-        <v>-0.2165542333055408</v>
-      </c>
-      <c r="AB3">
-        <v>0.04980683521129553</v>
-      </c>
-      <c r="AC3">
-        <v>-0.2663610685168364</v>
-      </c>
-      <c r="AD3">
-        <v>842.9</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>842.9</v>
-      </c>
-      <c r="AG3">
-        <v>790.6</v>
-      </c>
-      <c r="AH3">
-        <v>0.6427972241287272</v>
-      </c>
-      <c r="AI3">
-        <v>0.4158156973015638</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6279586973788721</v>
-      </c>
-      <c r="AK3">
-        <v>0.4003443386672068</v>
-      </c>
-      <c r="AL3">
-        <v>62.2</v>
-      </c>
-      <c r="AM3">
-        <v>62.2</v>
-      </c>
-      <c r="AO3">
-        <v>-9.186495176848874</v>
-      </c>
-      <c r="AQ3">
-        <v>-9.186495176848874</v>
+      <c r="G4">
+        <v>-0</v>
+      </c>
+      <c r="H4">
+        <v>-0</v>
+      </c>
+      <c r="I4">
+        <v>1.020749336217917</v>
+      </c>
+      <c r="J4">
+        <v>1.020749336217917</v>
+      </c>
+      <c r="K4">
+        <v>-1063.9</v>
+      </c>
+      <c r="L4">
+        <v>1.046218900580195</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>11.7</v>
+      </c>
+      <c r="V4">
+        <v>0.03482142857142857</v>
+      </c>
+      <c r="W4">
+        <v>-0.8984124303327141</v>
+      </c>
+      <c r="X4">
+        <v>0.05948263581611797</v>
+      </c>
+      <c r="Y4">
+        <v>-0.9578950661488321</v>
+      </c>
+      <c r="Z4">
+        <v>-0.5149382215920599</v>
+      </c>
+      <c r="AA4">
+        <v>-0.52562284788333</v>
+      </c>
+      <c r="AB4">
+        <v>0.04059859839977521</v>
+      </c>
+      <c r="AC4">
+        <v>-0.5662214462831052</v>
+      </c>
+      <c r="AD4">
+        <v>334.7</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>334.7</v>
+      </c>
+      <c r="AG4">
+        <v>323</v>
+      </c>
+      <c r="AH4">
+        <v>0.4990308632771731</v>
+      </c>
+      <c r="AI4">
+        <v>0.3545175299226777</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4901365705614568</v>
+      </c>
+      <c r="AK4">
+        <v>0.3464178464178465</v>
+      </c>
+      <c r="AL4">
+        <v>76.3</v>
+      </c>
+      <c r="AM4">
+        <v>76.3</v>
+      </c>
+      <c r="AO4">
+        <v>-13.60419397116645</v>
+      </c>
+      <c r="AQ4">
+        <v>-13.60419397116645</v>
       </c>
     </row>
   </sheetData>
